--- a/myapp/files/9_MethodComparePercent/Scenario 297.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 297.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>1232</v>
+        <v>6934</v>
       </c>
       <c r="F2" t="n">
-        <v>1.14789381982167</v>
+        <v>1.38147854464602</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>1.75438596491228</v>
+        <v>1.68776371308017</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>11040</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.19952742037671</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.68776371308017</v>
       </c>
       <c r="K3" t="n">
         <v>3</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>12714</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2.5330427194447</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1.68776371308017</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>10578</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>2.10748197941529</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2.10970464135021</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>9283</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1.84947581914465</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1.26582278481013</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>6513</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.29760163848854</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.68776371308017</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>14748</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2.93828173874236</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
@@ -821,10 +821,10 @@
         <v>2.94117647058824</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>3.37552742616034</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>1530</v>
+        <v>23412</v>
       </c>
       <c r="F9" t="n">
-        <v>1.425549954811</v>
+        <v>4.66443260560322</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -859,10 +859,10 @@
         <v>1.47058823529412</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>1.75438596491228</v>
+        <v>3.37552742616034</v>
       </c>
       <c r="K9" t="n">
         <v>2</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>2304</v>
+        <v>18318</v>
       </c>
       <c r="F10" t="n">
-        <v>2.14671052018597</v>
+        <v>3.64954196435331</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -897,10 +897,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J10" t="n">
-        <v>3.50877192982456</v>
+        <v>3.79746835443038</v>
       </c>
       <c r="K10" t="n">
         <v>3</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>1950</v>
+        <v>16045</v>
       </c>
       <c r="F11" t="n">
-        <v>1.81687739338657</v>
+        <v>3.19668636412539</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -935,10 +935,10 @@
         <v>1.47058823529412</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
-        <v>1.75438596491228</v>
+        <v>2.53164556962025</v>
       </c>
       <c r="K11" t="n">
         <v>2</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>2805</v>
+        <v>7584</v>
       </c>
       <c r="F12" t="n">
-        <v>2.61350825048683</v>
+        <v>1.51097970617183</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>1.75438596491228</v>
+        <v>0.843881856540084</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>1288</v>
+        <v>16669</v>
       </c>
       <c r="F13" t="n">
-        <v>1.20007081163174</v>
+        <v>3.32100747919016</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
@@ -1011,10 +1011,10 @@
         <v>2.94117647058824</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J13" t="n">
-        <v>3.50877192982456</v>
+        <v>2.9535864978903</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>7207</v>
+        <v>40092</v>
       </c>
       <c r="F14" t="n">
-        <v>6.71499249955743</v>
+        <v>7.9876316429115</v>
       </c>
       <c r="G14" t="n">
         <v>8</v>
@@ -1049,10 +1049,10 @@
         <v>11.7647058823529</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J14" t="n">
-        <v>7.01754385964912</v>
+        <v>6.32911392405063</v>
       </c>
       <c r="K14" t="n">
         <v>7</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>6983</v>
+        <v>22816</v>
       </c>
       <c r="F15" t="n">
-        <v>6.50628453231712</v>
+        <v>4.54569000211186</v>
       </c>
       <c r="G15" t="n">
         <v>3</v>
@@ -1087,10 +1087,10 @@
         <v>4.41176470588235</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J15" t="n">
-        <v>12.280701754386</v>
+        <v>6.75105485232068</v>
       </c>
       <c r="K15" t="n">
         <v>3</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>9804</v>
+        <v>18528</v>
       </c>
       <c r="F16" t="n">
-        <v>9.13470049474969</v>
+        <v>3.69138080115396</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -1125,10 +1125,10 @@
         <v>2.94117647058824</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J16" t="n">
-        <v>7.01754385964912</v>
+        <v>3.79746835443038</v>
       </c>
       <c r="K16" t="n">
         <v>7</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>4779</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.95213238604894</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.421940928270042</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>1410</v>
+        <v>14071</v>
       </c>
       <c r="F18" t="n">
-        <v>1.31374211521798</v>
+        <v>2.80340129819934</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>1.75438596491228</v>
+        <v>2.53164556962025</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>2585</v>
+        <v>33913</v>
       </c>
       <c r="F19" t="n">
-        <v>2.40852721123296</v>
+        <v>6.75657367819161</v>
       </c>
       <c r="G19" t="n">
         <v>10</v>
@@ -1239,10 +1239,10 @@
         <v>14.7058823529412</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J19" t="n">
-        <v>1.75438596491228</v>
+        <v>6.75105485232068</v>
       </c>
       <c r="K19" t="n">
         <v>3</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>5940</v>
+        <v>39375</v>
       </c>
       <c r="F20" t="n">
-        <v>5.53448805985446</v>
+        <v>7.84478190012074</v>
       </c>
       <c r="G20" t="n">
         <v>14</v>
@@ -1277,10 +1277,10 @@
         <v>20.5882352941176</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="J20" t="n">
-        <v>3.50877192982456</v>
+        <v>9.28270042194093</v>
       </c>
       <c r="K20" t="n">
         <v>5</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>4368</v>
+        <v>21808</v>
       </c>
       <c r="F21" t="n">
-        <v>4.06980536118591</v>
+        <v>4.34486358546877</v>
       </c>
       <c r="G21" t="n">
         <v>10</v>
@@ -1315,10 +1315,10 @@
         <v>14.7058823529412</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J21" t="n">
-        <v>3.50877192982456</v>
+        <v>7.59493670886076</v>
       </c>
       <c r="K21" t="n">
         <v>3</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>3648</v>
+        <v>7306</v>
       </c>
       <c r="F22" t="n">
-        <v>3.39895832362779</v>
+        <v>1.45559305555002</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>3.50877192982456</v>
+        <v>1.26582278481013</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>7398</v>
+        <v>19109</v>
       </c>
       <c r="F23" t="n">
-        <v>6.89295331090965</v>
+        <v>3.8071349163024</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J23" t="n">
-        <v>5.26315789473684</v>
+        <v>2.9535864978903</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>9292</v>
+        <v>32456</v>
       </c>
       <c r="F24" t="n">
-        <v>8.65765371248614</v>
+        <v>6.46629184381761</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1429,10 +1429,10 @@
         <v>2.94117647058824</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J24" t="n">
-        <v>10.5263157894737</v>
+        <v>6.75105485232068</v>
       </c>
       <c r="K24" t="n">
         <v>6</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>9671</v>
+        <v>42167</v>
       </c>
       <c r="F25" t="n">
-        <v>9.01078013920076</v>
+        <v>8.40103919701311</v>
       </c>
       <c r="G25" t="n">
         <v>6</v>
@@ -1467,10 +1467,10 @@
         <v>8.82352941176471</v>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="J25" t="n">
-        <v>12.280701754386</v>
+        <v>9.28270042194093</v>
       </c>
       <c r="K25" t="n">
         <v>5</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>27912</v>
+        <v>51668</v>
       </c>
       <c r="F26" t="n">
-        <v>26.0065034893363</v>
+        <v>10.293947713408</v>
       </c>
       <c r="G26" t="n">
         <v>7</v>
@@ -1505,10 +1505,10 @@
         <v>10.2941176470588</v>
       </c>
       <c r="I26" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J26" t="n">
-        <v>17.5438596491228</v>
+        <v>9.28270042194093</v>
       </c>
       <c r="K26" t="n">
         <v>13</v>
